--- a/data/income_statement/1digit/size/R_IS_SMALL.xlsx
+++ b/data/income_statement/1digit/size/R_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>R-Arts, entertainment and recreation</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>R-Arts, entertainment and recreation</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,314 +841,354 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>512185.11862</v>
+        <v>555117.05164</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>430327.82273</v>
+        <v>446371.17201</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>467006.4968</v>
+        <v>509192.62028</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>607653.85806</v>
+        <v>666027.87791</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>963295.33612</v>
+        <v>1027716.85866</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>998310.3697</v>
+        <v>1086358.42917</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1092681.1012</v>
+        <v>1214423.76754</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1152556.68827</v>
+        <v>1251312.41263</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>1426183.54434</v>
+        <v>1546842.01981</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1907324.02537</v>
+        <v>2012497.02766</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>2216093.53554</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2342065.82926</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1854014.651</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>494286.8198000001</v>
+        <v>535793.7728</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>408394.89734</v>
+        <v>424670.71841</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>444484.9719600001</v>
+        <v>483789.4331</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>586600.67509</v>
+        <v>636578.15673</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>913295.71953</v>
+        <v>964379.20182</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>957432.50741</v>
+        <v>1041996.27076</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1016014.68479</v>
+        <v>1138830.86911</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1065298.51406</v>
+        <v>1154018.61285</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>1297736.59771</v>
+        <v>1400472.70054</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1788816.2269</v>
+        <v>1884123.17377</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>2079004.79521</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2178980.95962</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1728688.038</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>6426.80114</v>
+        <v>6923.72077</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>4800.61516</v>
+        <v>5012.12413</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>5306.83373</v>
+        <v>6137.940519999999</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>3106.925650000001</v>
+        <v>10278.82313</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>17826.15108</v>
+        <v>29363.23939</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>11408.20269</v>
+        <v>14125.09904</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>29656.88408</v>
+        <v>27989.89234</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>43848.70976</v>
+        <v>47484.08063</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>80487.90887999999</v>
+        <v>88824.18044</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>56760.05761</v>
+        <v>66296.88841</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>75508.8306</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>93508.79032</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>74992.21400000001</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>11471.49768</v>
+        <v>12399.55807</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>17132.31023</v>
+        <v>16688.32947</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>17214.69111</v>
+        <v>19265.24666</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>17946.25732</v>
+        <v>19170.89805</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>32173.46551</v>
+        <v>33974.41745</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>29469.6596</v>
+        <v>30237.05937</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>47009.53233</v>
+        <v>47603.00609</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>43409.46444999999</v>
+        <v>49809.71915</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>47959.03775</v>
+        <v>57545.13883</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>61747.74086</v>
+        <v>62076.96547999999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>61579.90973</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>69576.07932</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>50334.399</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>1470.64779</v>
+        <v>2424.636480000001</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1461.84283</v>
+        <v>1328.35112</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>2406.39465</v>
+        <v>2412.68296</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>4319.22249</v>
+        <v>5036.46666</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>6046.09433</v>
+        <v>6060.050260000001</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>7494.59799</v>
+        <v>7743.104199999999</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>3170.06421</v>
+        <v>5352.441210000001</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>5257.827</v>
+        <v>7127.43258</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>6450.07159</v>
+        <v>5418.273810000001</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>11861.28324</v>
+        <v>15883.96978</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>12638.07268</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>14965.06437</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>34232.409</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>1364.74134</v>
+        <v>2330.30963</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>886.0342900000001</v>
+        <v>755.7353899999999</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>2250.24918</v>
+        <v>2257.22737</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>4071.28464</v>
+        <v>4346.66739</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>4342.46233</v>
+        <v>4357.65526</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>6196.95058</v>
+        <v>6459.02092</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>2544.66809</v>
+        <v>4697.32175</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>4929.1503</v>
+        <v>6799.053879999999</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>5367.9536</v>
+        <v>4087.95025</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>9907.62816</v>
+        <v>13891.80086</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>11692.0379</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>12327.29347</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>27375.007</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>103.59441</v>
+        <v>92.51481</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>557.98609</v>
+        <v>557.0726</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>85.95687999999998</v>
+        <v>85.267</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>162.68963</v>
+        <v>598.0534699999999</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>1213.67881</v>
+        <v>1212.44181</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>782.61154</v>
+        <v>792.68154</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>430.63697</v>
+        <v>459.79229</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>177.28764</v>
+        <v>176.98964</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>788.0106699999999</v>
+        <v>992.5602899999999</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>1406.93194</v>
+        <v>1445.44578</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>609.5179199999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>2301.25404</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>5870.693</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>2.31204</v>
+        <v>1.81204</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>17.82245</v>
+        <v>15.54313</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>70.18858999999999</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>85.24822000000002</v>
+        <v>91.74580000000002</v>
       </c>
       <c r="G12" s="48" t="n">
         <v>489.95319</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>515.03587</v>
+        <v>491.40174</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>194.75915</v>
+        <v>195.32717</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>151.38906</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>294.10732</v>
+        <v>337.76327</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>546.7231400000001</v>
@@ -1255,323 +1196,368 @@
       <c r="M12" s="48" t="n">
         <v>336.5168600000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>986.7089999999999</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>510714.47083</v>
+        <v>552692.41516</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>428865.9799</v>
+        <v>445042.82089</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>464600.10215</v>
+        <v>506779.93732</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>603334.6355699999</v>
+        <v>660991.41125</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>957249.24179</v>
+        <v>1021656.8084</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>990815.7717099999</v>
+        <v>1078615.32497</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1089511.03699</v>
+        <v>1209071.32633</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1147298.86127</v>
+        <v>1244184.98005</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>1419733.47275</v>
+        <v>1541423.746</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1895462.74213</v>
+        <v>1996613.05788</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>2203455.46286</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2327100.76489</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1819782.242</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>417328.77333</v>
+        <v>462074.95789</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>335675.96802</v>
+        <v>345299.44374</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>353423.9701</v>
+        <v>391475.82865</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>479719.85122</v>
+        <v>525892.8581699999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>706034.68801</v>
+        <v>753824.83904</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>741181.76751</v>
+        <v>796000.3261899999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>848141.3510000001</v>
+        <v>920292.82447</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>881564.6753299999</v>
+        <v>942524.2037399999</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>1101685.99849</v>
+        <v>1181222.50512</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1453735.62289</v>
+        <v>1516872.31302</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1721882.87884</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1815066.38758</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1487648.564</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>7743.47392</v>
+        <v>9329.368920000001</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>13411.25521</v>
+        <v>14924.63399</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>13710.96632</v>
+        <v>13593.47153</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>18477.22633</v>
+        <v>23232.20981</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>14729.80604</v>
+        <v>25967.32709</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>26231.34502</v>
+        <v>27137.40049</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>36896.69954000001</v>
+        <v>37980.31639</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>57161.28015</v>
+        <v>63218.31958</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>64220.17861</v>
+        <v>74865.80058</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>93648.46603999998</v>
+        <v>90847.61903999999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>121124.2824</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>121296.37085</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>104078.214</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>129064.25474</v>
+        <v>131049.0177</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>47793.76464</v>
+        <v>47975.93573</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>51328.35296</v>
+        <v>51229.51229</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>70500.59436000002</v>
+        <v>74783.19774</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>94619.60647</v>
+        <v>100551.06356</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>150343.35274</v>
+        <v>147800.01508</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>221894.39361</v>
+        <v>231607.99964</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>163739.9774</v>
+        <v>161011.81354</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>242723.03016</v>
+        <v>247052.86645</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>244561.24725</v>
+        <v>236352.56303</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>264576.79294</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>304393.4399699999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>357137.519</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>279470.7261799999</v>
+        <v>320887.25278</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>273277.9254</v>
+        <v>281205.85125</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>286260.7704</v>
+        <v>323845.62771</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>388039.10954</v>
+        <v>425086.4442800001</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>593269.6602899999</v>
+        <v>623517.07134</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>558009.57608</v>
+        <v>614465.4169500001</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>579938.77576</v>
+        <v>641854.7709100001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>655268.4720399999</v>
+        <v>712515.86993</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>789766.8656600001</v>
+        <v>853387.87281</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1098044.84343</v>
+        <v>1171026.44075</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1329145.05317</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1383929.84508</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1016559.508</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>1050.31849</v>
+        <v>809.31849</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>1193.02277</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>2123.88042</v>
+        <v>2807.21712</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>2702.92099</v>
+        <v>2791.00634</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>3415.61521</v>
+        <v>3789.37705</v>
       </c>
       <c r="H18" s="48" t="n">
         <v>6597.49367</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>9411.48209</v>
+        <v>8849.737529999999</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>5394.94574</v>
+        <v>5778.20069</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>4975.924059999999</v>
+        <v>5915.965279999999</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>17481.06617</v>
+        <v>18645.6902</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>7036.75033</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>5446.73168</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>9873.323</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>93385.69749999999</v>
+        <v>90617.45727</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>93190.01187999999</v>
+        <v>99743.37714999999</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>111176.13205</v>
+        <v>115304.10867</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>123614.78435</v>
+        <v>135098.55308</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>251214.55378</v>
+        <v>267831.96936</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>249634.0042</v>
+        <v>282614.99878</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>241369.68599</v>
+        <v>288778.50186</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>265734.18594</v>
+        <v>301660.7763099999</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>318047.47426</v>
+        <v>360201.24088</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>441727.11924</v>
+        <v>479740.74486</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>481572.58402</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>512034.37731</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>332133.678</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>105279.19614</v>
+        <v>150747.85291</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>121533.31791</v>
+        <v>146659.53115</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>140851.48323</v>
+        <v>186979.79111</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>152773.29507</v>
+        <v>222939.25858</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>291961.58016</v>
+        <v>348085.39812</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>262436.95283</v>
+        <v>299649.63113</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>306922.94832</v>
+        <v>379402.19488</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>321634.74986</v>
+        <v>374150.76403</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>375827.31596</v>
+        <v>433828.44716</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>473026.89182</v>
+        <v>573550.75303</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>488105.95967</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>566855.15618</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>461778.135</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0.8369800000000001</v>
@@ -1583,190 +1569,215 @@
         <v>0</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>170.27025</v>
+        <v>83.05085000000001</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>23.85781</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>25.82211</v>
+        <v>53.31431000000001</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>40.17549</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>300.9903</v>
+        <v>302.1513</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>3.20236</v>
+        <v>1980.59828</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>1.57541</v>
+        <v>15127.08192</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>4.71624</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>14530.83873</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>2423.297</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>12646.86398</v>
+        <v>14896.45474</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>20274.81981</v>
+        <v>21298.44995</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>20055.02202</v>
+        <v>24860.66972</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>18209.0924</v>
+        <v>19304.56747</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>37643.7549</v>
+        <v>41149.62392</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>27264.91926</v>
+        <v>31308.56551</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>36687.24328</v>
+        <v>39379.29283999999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>37765.3407</v>
+        <v>39637.33145</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>42556.26878</v>
+        <v>44024.87911</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>73960.14877000001</v>
+        <v>77627.28967999999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>64214.08278999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>64036.35674000001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>48142.45</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>92631.49518</v>
+        <v>135850.56119</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>101257.6696</v>
+        <v>125360.2527</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>120796.46121</v>
+        <v>162119.12139</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>134393.93242</v>
+        <v>203551.64026</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>254293.96745</v>
+        <v>306911.91639</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>235146.21146</v>
+        <v>268287.75131</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>270195.52955</v>
+        <v>339982.72655</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>283568.41886</v>
+        <v>334211.28128</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>333267.84482</v>
+        <v>387822.96977</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>399065.16764</v>
+        <v>480796.38143</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>423887.16064</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>488287.96071</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>411212.388</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-11893.49864</v>
+        <v>-60130.39564</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-28343.30603</v>
+        <v>-46916.154</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-29675.35117999999</v>
+        <v>-71675.68244</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-29158.51072</v>
+        <v>-87840.7055</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-40747.02638</v>
+        <v>-80253.42876000001</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-12802.94863</v>
+        <v>-17034.63235</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-65553.26233</v>
+        <v>-90623.69301999999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-55900.56392</v>
+        <v>-72489.98772</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-57779.8417</v>
+        <v>-73627.20628</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-31299.77258</v>
+        <v>-93810.00816999999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-6533.375649999994</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-54820.77887</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-129644.457</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>12951.71861</v>
+        <v>51637.54197</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>14865.22685</v>
+        <v>40280.80849</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>16677.64708</v>
+        <v>59354.19748</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>14689.25277</v>
+        <v>54811.71782</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>28988.84735</v>
+        <v>97031.13131999999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>53922.82258</v>
+        <v>35615.38556</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>25681.24361</v>
+        <v>60412.78732</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>27887.99967</v>
+        <v>50081.68113</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>42617.01233999999</v>
+        <v>72010.74623</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>118560.55929</v>
+        <v>298615.50037</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>87639.80829</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>128321.6211</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>187821.435</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0.43436</v>
@@ -1781,34 +1792,39 @@
         <v>99.14506</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>434.74736</v>
+        <v>39.65801999999999</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>218.11912</v>
+        <v>319.8407</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>194.38592</v>
+        <v>440.93338</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>0.00266</v>
+        <v>439.29097</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>3575.77265</v>
+        <v>460.50012</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>3715.66741</v>
+        <v>882.70054</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>1432.0447</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>161.23108</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>1010.47708</v>
+        <v>1263.22423</v>
       </c>
       <c r="D27" s="48" t="n">
         <v>0</v>
@@ -1820,13 +1836,13 @@
         <v>28.13423</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>0</v>
+        <v>16001.45088</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>0.9614199999999999</v>
+        <v>2893.08122</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>0</v>
@@ -1840,206 +1856,236 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>1762.64022</v>
+        <v>2850.91</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>1818.34773</v>
+        <v>2597.96451</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>3467.57906</v>
+        <v>3439.533399999999</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>3843.09621</v>
+        <v>6768.32321</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>3786.599290000001</v>
+        <v>7534.16263</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>6238.16688</v>
+        <v>6209.92737</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>3728.77483</v>
+        <v>7183.009720000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>4595.61029</v>
+        <v>5445.138269999999</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>5786.10981</v>
+        <v>9822.447399999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>16761.39136</v>
+        <v>25769.84014</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>15462.3137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>27401.08621</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>24627.281</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>155.93419</v>
+        <v>222.12769</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>1022.929</v>
+        <v>307.28308</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>376.0666</v>
+        <v>175.92193</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>1266.47147</v>
+        <v>1043.41784</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>517.80332</v>
+        <v>310.12423</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>1332.26637</v>
+        <v>1023.41071</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>1132.71048</v>
+        <v>1333.11452</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>1231.73896</v>
+        <v>707.3174700000001</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>1586.74367</v>
+        <v>727.00607</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>363.66665</v>
+        <v>118.6586</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>593.22616</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>464.1912599999999</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>184.982</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>110.67</v>
+        <v>25786.11583</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>27.51503</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>36.464</v>
+        <v>25727.22698</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>179.96057</v>
+        <v>195.42478</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1140.46283</v>
+        <v>1227.28187</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>118.03871</v>
+        <v>290.82498</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>536.4086799999999</v>
+        <v>541.8228399999999</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>853.2609699999999</v>
+        <v>1112.11587</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>892.28925</v>
+        <v>999.37801</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>2044.51607</v>
+        <v>2168.50877</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>1723.11645</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>1602.29171</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>1972.252</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>158.9163</v>
+        <v>151.16258</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>130.6957</v>
+        <v>143.37408</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>190.84007</v>
+        <v>858.58042</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>266.64387</v>
+        <v>2901.18285</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>321.76412</v>
+        <v>31393.02906</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>4156.831929999999</v>
+        <v>7198.682309999999</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>321.16485</v>
+        <v>4331.90705</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>442.52716</v>
+        <v>415.59466</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>796.35248</v>
+        <v>937.64559</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>7117.64972</v>
+        <v>5378.340969999999</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>11422.92138</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>2618.11468</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>11869.683</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>2213.27528</v>
+        <v>12749.51394</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>3113.7289</v>
+        <v>28774.73551999999</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>2973.82339</v>
+        <v>13815.39687</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>3543.56987</v>
+        <v>21175.10461</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>7003.7401</v>
+        <v>15536.82103</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>27147.86319</v>
+        <v>11652.37239</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>8993.88882</v>
+        <v>32326.46666</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>8854.5021</v>
+        <v>28032.28782</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>9200.82584</v>
+        <v>33513.61509000001</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>61059.30268</v>
+        <v>167315.81028</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>29143.21671</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>52195.71531</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>109528.127</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2060,7 +2106,7 @@
         <v>32.67069</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>67.60056</v>
+        <v>0</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>1161.541</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2111,169 +2162,194 @@
         <v>0</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>232.82997</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>7539.37118</v>
+        <v>8614.05334</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>8685.225390000001</v>
+        <v>8363.151169999999</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>9627.733099999999</v>
+        <v>15332.39702</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>5462.23149</v>
+        <v>22600.98524</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>15726.99095</v>
+        <v>24931.86422</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>14677.90427</v>
+        <v>5994.57519</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>10706.30947</v>
+        <v>14239.53315</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>11907.08993</v>
+        <v>13926.66847</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>20690.21387</v>
+        <v>25461.44918</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>27498.3654</v>
+        <v>96981.64107</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>27630.13922</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>43878.99085</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>38477.569</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>4556.34386</v>
+        <v>16158.28012</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>4607.63692</v>
+        <v>6010.5906</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>6700.928</v>
+        <v>17037.41312</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>5721.50558</v>
+        <v>24737.18576</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>16713.86828</v>
+        <v>30927.69213</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>38849.92164</v>
+        <v>28093.00068</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>15412.28021</v>
+        <v>44455.19991</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>13998.58422</v>
+        <v>50945.89791000001</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>21268.31434</v>
+        <v>63055.93586999999</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>114252.0682</v>
+        <v>213111.58602</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>39861.34733999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>115500.45824</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>157788.443</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>655.6041</v>
+        <v>642.00045</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>608.5904399999999</v>
+        <v>670.10429</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>306.58012</v>
+        <v>382.8469</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1317.87519</v>
+        <v>1334.83343</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>1231.2619</v>
+        <v>1315.16371</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1206.6112</v>
+        <v>1225.69011</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>797.6626100000001</v>
+        <v>926.88875</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1385.88584</v>
+        <v>1391.9645</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>1261.85911</v>
+        <v>1354.02081</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>2757.42551</v>
+        <v>2955.20114</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1589.04601</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1814.79821</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>833.448</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>477.7006999999999</v>
+        <v>635.62433</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>431.43634</v>
+        <v>625.07614</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>409.085</v>
+        <v>517.89401</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>360.91207</v>
+        <v>680.5108999999999</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>2022.05991</v>
+        <v>2503.43803</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>1098.94737</v>
+        <v>1543.08734</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>775.59488</v>
+        <v>1661.64399</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>2596.57338</v>
+        <v>4045.36092</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>3180.42422</v>
+        <v>4442.16335</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>7292.480539999999</v>
+        <v>9082.06604</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>3418.8957</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>4335.63106</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>4515.005</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>33.20999</v>
@@ -2285,73 +2361,83 @@
         <v>0.75573</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>14.77084</v>
+        <v>2.10965</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>89.66748000000001</v>
+        <v>89.45368000000001</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>0.06346</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>314.1218500000001</v>
+        <v>2081.96066</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>25.34339</v>
+        <v>2.97324</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>4.06916</v>
+        <v>0.62848</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>15.47428</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>2.25123</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>426.037</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>2631.01082</v>
+        <v>13460.5785</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>2757.27009</v>
+        <v>3773.863420000001</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>5267.625369999999</v>
+        <v>15100.72075</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>2069.30292</v>
+        <v>19785.91551</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>11549.06287</v>
+        <v>24912.77697</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>27641.87039</v>
+        <v>19875.44739</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>10911.966</v>
+        <v>36251.61378</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>8835.720789999999</v>
+        <v>43848.60931</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>13292.45659</v>
+        <v>52425.82211</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>99197.07704</v>
+        <v>196945.86135</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>31406.38709</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>105542.72108</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>146809.295</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,20 +2472,25 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>0.00063</v>
+        <v>0</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>1.41633</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>0.00184</v>
+        <v>0</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>0</v>
@@ -2414,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>0.5785</v>
+        <v>114.24398</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>758.81762</v>
+        <v>1386.86685</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>803.9463300000001</v>
+        <v>935.1530300000001</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>716.8799399999999</v>
+        <v>1035.19573</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>1958.64456</v>
+        <v>2933.81627</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>1821.81612</v>
+        <v>2106.85974</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>8854.76879</v>
+        <v>5401.05195</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>2612.93487</v>
+        <v>3533.09273</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>1173.82571</v>
+        <v>1545.7192</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>3508.23103</v>
+        <v>4830.95636</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>5001.01595</v>
+        <v>4127.829009999999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>3431.54426</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>3805.05666</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>5204.658</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>9301.16877</v>
+        <v>24918.25829</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>6021.89518</v>
+        <v>45432.38872</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>9206.36204</v>
+        <v>66623.85159999999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>12086.58725</v>
+        <v>25871.49305</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>18990.62187</v>
+        <v>83398.12777999998</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>22733.25735</v>
+        <v>29153.00375</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>18902.31677</v>
+        <v>127373.35311</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>20701.91808</v>
+        <v>50661.0971</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>26670.19386</v>
+        <v>69381.49765999999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>59748.46205</v>
+        <v>88776.07115999999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>47737.51384</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>81578.77456000001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>49930.716</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>9238.795789999998</v>
+        <v>24281.5238</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>5990.180630000001</v>
+        <v>7818.66737</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>9013.325219999999</v>
+        <v>17656.37174</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>11498.31515</v>
+        <v>21716.17125</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>17731.61114</v>
+        <v>29500.82277</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>21828.00176</v>
+        <v>27068.09914</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>18281.68459</v>
+        <v>33638.68106999999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>20348.21593</v>
+        <v>49208.22037</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>26250.52329</v>
+        <v>66797.29392999999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>57256.24942</v>
+        <v>85123.97287</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>46812.66160000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>77421.58728000001</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>44762.377</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>62.37298000000001</v>
+        <v>636.7344899999998</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>31.71455</v>
+        <v>37613.72135</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>193.03682</v>
+        <v>48967.47985999999</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>588.2721000000001</v>
+        <v>4155.3218</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>1259.01073</v>
+        <v>53897.30501</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>905.25559</v>
+        <v>2084.90461</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>620.6321799999999</v>
+        <v>93734.67204</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>353.70215</v>
+        <v>1452.87673</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>419.67057</v>
+        <v>2584.20373</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>2492.21263</v>
+        <v>3652.09829</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>924.8522399999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>4157.18728</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>5168.339</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-12799.29266</v>
+        <v>-49569.39208</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-24107.61128</v>
+        <v>-58078.32483</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-28904.99414</v>
+        <v>-95982.74967999999</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-32277.35078</v>
+        <v>-83637.66649</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-47462.66918</v>
+        <v>-97548.11735000001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-20463.30504</v>
+        <v>-38665.25122</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-74186.61570000001</v>
+        <v>-202039.45872</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-62713.06655</v>
+        <v>-124015.3016</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-63101.33756</v>
+        <v>-134053.89358</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-86739.74354000001</v>
+        <v>-97082.16497999999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-6492.428539999995</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-123578.39057</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-149542.181</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>7086.83672</v>
+        <v>55928.09406</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>5333.282679999999</v>
+        <v>4685.282450000001</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>4672.10076</v>
+        <v>16942.94054</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>8018.449050000001</v>
+        <v>10725.86881</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>10085.15685</v>
+        <v>12745.08133</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>14466.52766</v>
+        <v>13480.34174</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>27472.21661</v>
+        <v>71724.4084</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>17914.74695</v>
+        <v>15430.19274</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>12274.83667</v>
+        <v>17231.89641</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>33564.79512</v>
+        <v>35131.40432</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>40851.28894</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>51790.29826</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>32426.209</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>276.56222</v>
+        <v>42779.41791</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>575.24105</v>
+        <v>575.0715399999999</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>20.2573</v>
+        <v>10.85621</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>65.29917</v>
+        <v>113.74333</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>146.43556</v>
+        <v>161.18218</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>211.85863</v>
+        <v>123.59129</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>74.39228</v>
+        <v>540.24928</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>235.74727</v>
+        <v>255.85505</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>132.50704</v>
+        <v>722.8833000000001</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>154.32913</v>
+        <v>243.79256</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>605.28041</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>539.10884</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>5103.898</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>6810.2745</v>
+        <v>13148.67615</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>4758.04163</v>
+        <v>4110.21091</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>4651.84346</v>
+        <v>16932.08433</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>7953.149880000001</v>
+        <v>10612.12548</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>9938.721290000001</v>
+        <v>12583.89915</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>14254.66903</v>
+        <v>13356.75045</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>27397.82433</v>
+        <v>71184.15912000001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>17678.99968</v>
+        <v>15174.33769</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>12142.32963</v>
+        <v>16509.01311</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>33410.46599</v>
+        <v>34887.61176000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>40246.00853</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>51251.18942</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>27322.311</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>4795.6396</v>
+        <v>63478.86851000001</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>5184.359350000001</v>
+        <v>4897.737679999999</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>23319.56589</v>
+        <v>31771.95163</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>5557.56226</v>
+        <v>7534.946529999999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>11988.02364</v>
+        <v>13711.2794</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>25310.29725</v>
+        <v>27872.53222</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>13977.75303</v>
+        <v>20321.66523</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>33120.26764</v>
+        <v>48118.13647</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>28106.27348</v>
+        <v>31563.87568</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>50950.5324</v>
+        <v>52149.81472</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>28478.74143</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>32671.01816</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>32608.405</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>478.0032</v>
+        <v>250.53799</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>455.37104</v>
+        <v>851.73713</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>254.0171</v>
+        <v>1189.24049</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>391.5914</v>
+        <v>778.1464599999999</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>1234.77833</v>
+        <v>1197.24436</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>113.58265</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>116.31997</v>
+        <v>114.69953</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>303.88371</v>
+        <v>6.424690000000001</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>372.25093</v>
+        <v>1447.53315</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>18.90704</v>
+        <v>0</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>447.08226</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>424.00624</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>762.742</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>703.0835</v>
+        <v>58494.41809</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>246.12709</v>
+        <v>116.05575</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>515.30756</v>
+        <v>468.6985799999999</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>348.99436</v>
+        <v>593.12825</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>2690.59016</v>
+        <v>2748.97094</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>2238.26037</v>
+        <v>2333.10208</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>2489.41811</v>
+        <v>2526.21262</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>449.78548</v>
+        <v>432.19957</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>2289.9866</v>
+        <v>2342.14667</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>2275.91435</v>
+        <v>2233.341840000001</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1245.05919</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>424.4735899999999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>8413.168</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>3614.552900000001</v>
+        <v>4733.912429999999</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>4482.86122</v>
+        <v>3929.9448</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>22550.24123</v>
+        <v>30114.01256</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>4816.9765</v>
+        <v>6163.67182</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>8062.655150000001</v>
+        <v>9765.064100000001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>22958.45423</v>
+        <v>25425.84749</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>11372.01495</v>
+        <v>17680.75308</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>32366.59845</v>
+        <v>47679.51221</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>25444.03594999999</v>
+        <v>27774.19586</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>48655.71100999999</v>
+        <v>49916.47288</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>26786.59998</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>31822.53833</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>23432.495</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-10508.09554</v>
+        <v>-57120.16653</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-23958.68795</v>
+        <v>-58290.78006</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-47552.45927000001</v>
+        <v>-110811.76077</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-29816.46399</v>
+        <v>-80446.74420999999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-49365.53597</v>
+        <v>-98514.31542</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-31307.07463</v>
+        <v>-53057.4417</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-60692.15212</v>
+        <v>-150636.71555</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-77918.58723999999</v>
+        <v>-156703.24533</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-78932.77436999998</v>
+        <v>-148385.87285</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-104125.48082</v>
+        <v>-114100.57538</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>5880.118969999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-104459.11047</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-149724.377</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>3850.14448</v>
+        <v>3917.73981</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>4048.562559999999</v>
+        <v>4032.241859999999</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>4773.39834</v>
+        <v>4494.41235</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>5453.80284</v>
+        <v>5123.775</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>8068.63759</v>
+        <v>7917.767630000001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>9418.893550000001</v>
+        <v>9335.15373</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>7789.366150000001</v>
+        <v>9461.504280000001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>9108.908220000001</v>
+        <v>9564.02331</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>9297.66467</v>
+        <v>10410.13774</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>19586.72199</v>
+        <v>18939.7357</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>32451.64712</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>31749.23455</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>19516.867</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-14358.24002</v>
+        <v>-61037.90634</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-28007.25051000001</v>
+        <v>-62323.02192</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-52325.85761</v>
+        <v>-115306.17312</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-35270.26683000001</v>
+        <v>-85570.51921</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-57434.17356</v>
+        <v>-106432.08305</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-40725.96818</v>
+        <v>-62392.59543</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-68481.51827000002</v>
+        <v>-160098.21983</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-87027.49546000001</v>
+        <v>-166267.26864</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-88230.43904</v>
+        <v>-158796.01059</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-123712.20281</v>
+        <v>-133040.31108</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-26571.52815</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-136208.34502</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-169241.244</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>385</v>
+        <v>333</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>439</v>
+        <v>379</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>506</v>
+        <v>449</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>599</v>
+        <v>502</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>684</v>
+        <v>561</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>746</v>
+        <v>575</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>822</v>
+        <v>621</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>942</v>
+        <v>692</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>714</v>
+        <v>619</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>632</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>